--- a/boost_forecast/res_AR_75.xlsx
+++ b/boost_forecast/res_AR_75.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\GDOforecast\boost_forecast\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F5D79FB1-34C3-4215-97F3-D848A9D4E64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28D4FA6-8EE7-477F-B4AB-30D4EB73F5E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33330" yWindow="1665" windowWidth="23715" windowHeight="13155"/>
+    <workbookView xWindow="33330" yWindow="1665" windowWidth="23715" windowHeight="13155" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BIAS" sheetId="2" r:id="rId1"/>
     <sheet name="res_AR_75" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="18">
   <si>
     <t>series</t>
   </si>
@@ -70,11 +81,17 @@
   <si>
     <t>SUM</t>
   </si>
+  <si>
+    <t>STD</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -908,12 +925,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4086,17 +4103,123 @@
         <v>12.066813207369371</v>
       </c>
     </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C56" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56">
+        <f>_xlfn.STDEV.S(D2:D53)</f>
+        <v>2.1576793336787454</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ref="E56:O56" si="1">_xlfn.STDEV.S(E2:E53)</f>
+        <v>1.6528222238332477</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>3.2823658726569236</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>5.9024538337480239</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="1"/>
+        <v>6.9810399067472515</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="1"/>
+        <v>6.8358973165370189</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="1"/>
+        <v>7.0465004505824274</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="1"/>
+        <v>6.9658041944538098</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>6.7993829731764635</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="1"/>
+        <v>9.0109715389042027</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="1"/>
+        <v>10.229609392246253</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="1"/>
+        <v>6.8733782705712994</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C57" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57">
+        <f>AVERAGE(D2:D53)</f>
+        <v>-1.6109432457690052</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57:O57" si="2">AVERAGE(E2:E53)</f>
+        <v>-0.57245702510322605</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>-7.8642178676502175</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>10.25580453243929</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>-9.6176731769840818E-2</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="2"/>
+        <v>0.58534311979063436</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="2"/>
+        <v>0.52056645717890837</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="2"/>
+        <v>0.29218346500270725</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="2"/>
+        <v>-6.0267301987003134E-2</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="2"/>
+        <v>3.5811788548480363</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="2"/>
+        <v>5.9786571000819944</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="2"/>
+        <v>0.23205410014171868</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
